--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98724AF-BE6F-48BA-9DD4-964E434B6596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E85FC-E42B-448B-B5B9-393AF5E1CB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E85FC-E42B-448B-B5B9-393AF5E1CB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDF576-2B9A-408E-8441-07FC652EE1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,9 @@
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDF576-2B9A-408E-8441-07FC652EE1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3569A4-38B8-4AD7-8381-57648460406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -596,7 +596,9 @@
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -638,7 +640,9 @@
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLAUDIA\Documents\GitHub\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DDF576-2B9A-408E-8441-07FC652EE1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F95094-D959-41C7-A58E-381A8F23063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -596,7 +596,9 @@
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLAUDIA\Documents\GitHub\ISII_EF_LibreriaVirtual\4-documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F95094-D959-41C7-A58E-381A8F23063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A1FE0-5934-42E6-991F-6C90515B2AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -640,7 +640,9 @@
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -676,7 +678,9 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A1FE0-5934-42E6-991F-6C90515B2AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098F89B-DF90-473E-874E-7C847F635A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -725,7 +725,9 @@
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098F89B-DF90-473E-874E-7C847F635A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50E8B0-65C5-4DC6-AAFB-D1769A645722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Mockup</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -651,7 +651,9 @@
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB50E8B0-65C5-4DC6-AAFB-D1769A645722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA639A2-2926-411B-907B-CAAF6BA742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Mockup</t>
   </si>
@@ -109,13 +110,52 @@
   </si>
   <si>
     <t>Alejo</t>
+  </si>
+  <si>
+    <t>ROLES</t>
+  </si>
+  <si>
+    <t>SCRUM MASTER</t>
+  </si>
+  <si>
+    <t>PRODUCT OWNER</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>PROGRAMADORES</t>
+  </si>
+  <si>
+    <t>CALIDAD</t>
+  </si>
+  <si>
+    <t>DOCUMENTACIÓN</t>
+  </si>
+  <si>
+    <t>Gabriel Sebastián Cruz Ramirez</t>
+  </si>
+  <si>
+    <t>Andrea Lucía Lira Falcón</t>
+  </si>
+  <si>
+    <t>Claudia Adriana Martinez Muñoz</t>
+  </si>
+  <si>
+    <t>Jesus Alejandro Anci Yep</t>
+  </si>
+  <si>
+    <t>Sebastián Santiago Hermosa Cáceres</t>
+  </si>
+  <si>
+    <t>Daniel Guillermo Zegarra Zegarra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -131,8 +171,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,11 +252,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +299,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509E58A-F92B-4CE3-A80A-B003A79C5C6F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -700,7 +790,9 @@
       <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -709,7 +801,9 @@
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -718,7 +812,9 @@
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -746,4 +842,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF16DF-E789-45D2-AC83-5616C747C082}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1"/>
+    <col min="2" max="2" width="20.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA639A2-2926-411B-907B-CAAF6BA742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F0F73-5B8D-42FD-A45E-369F1A3F4D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
@@ -304,25 +304,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,7 +849,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -862,99 +862,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>33</v>
+      <c r="E9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F0F73-5B8D-42FD-A45E-369F1A3F4D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A38CF0-6FB6-4FFB-B16B-2E5001FAF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Mockup</t>
   </si>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509E58A-F92B-4CE3-A80A-B003A79C5C6F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -752,7 +752,9 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -761,7 +763,9 @@
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -781,7 +785,9 @@
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -848,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF16DF-E789-45D2-AC83-5616C747C082}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/4-documentacion/Reparticion-Pantallas.xlsx
+++ b/4-documentacion/Reparticion-Pantallas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\VIIICICLO\ING_SOFT_II\ISII_EF_LibreriaVirtual\4-documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A38CF0-6FB6-4FFB-B16B-2E5001FAF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49362BB4-1E6A-4581-AE63-7D0D24501BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3608030F-E61C-4C04-B87C-4EC5C74A4202}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>Mockup</t>
   </si>
@@ -55,9 +56,6 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>modal_verificacion</t>
-  </si>
-  <si>
     <t>Olvide Contraseña</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
     <t>Listo</t>
   </si>
   <si>
-    <t>Sebas</t>
-  </si>
-  <si>
     <t>Gabo</t>
   </si>
   <si>
@@ -149,13 +144,118 @@
   </si>
   <si>
     <t>Daniel Guillermo Zegarra Zegarra</t>
+  </si>
+  <si>
+    <t>Historias</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Sin hacer</t>
+  </si>
+  <si>
+    <t>Recuperación de contraseña</t>
+  </si>
+  <si>
+    <t>Mayra</t>
+  </si>
+  <si>
+    <t>Verificación de dos pasos</t>
+  </si>
+  <si>
+    <t>Catálogo</t>
+  </si>
+  <si>
+    <t>Mostrar Libros</t>
+  </si>
+  <si>
+    <t>mimir</t>
+  </si>
+  <si>
+    <t>Mostrar Detalle de Libro</t>
+  </si>
+  <si>
+    <t>Agregar Carrito / Advertencia</t>
+  </si>
+  <si>
+    <t>Eliminar Carrito</t>
+  </si>
+  <si>
+    <t>Mostrar Carrito</t>
+  </si>
+  <si>
+    <t>Zona de Transacción</t>
+  </si>
+  <si>
+    <t>Mostrar calificación de ambos</t>
+  </si>
+  <si>
+    <t>Aceptar la transacción</t>
+  </si>
+  <si>
+    <t>Zona de Comunicación</t>
+  </si>
+  <si>
+    <t>Mostrar información de las gentes</t>
+  </si>
+  <si>
+    <t>Finalizar transacción</t>
+  </si>
+  <si>
+    <t>Encuesta de servicio</t>
+  </si>
+  <si>
+    <t>Formulario de encuesta</t>
+  </si>
+  <si>
+    <t>Asignar calificación al vendedor</t>
+  </si>
+  <si>
+    <t>Perfil - Comprador</t>
+  </si>
+  <si>
+    <t>Mostrar información del usuario</t>
+  </si>
+  <si>
+    <t>Editar información del usuario</t>
+  </si>
+  <si>
+    <t>Transacciones realizadas</t>
+  </si>
+  <si>
+    <t>Perfil - Tienda</t>
+  </si>
+  <si>
+    <t>Mostrar libros publicados</t>
+  </si>
+  <si>
+    <t>Agregar libro</t>
+  </si>
+  <si>
+    <t>Editar libro</t>
+  </si>
+  <si>
+    <t>Pantalla Principal - Usuario</t>
+  </si>
+  <si>
+    <t>Gabo - Sorio</t>
+  </si>
+  <si>
+    <t>Clau - Mayra</t>
+  </si>
+  <si>
+    <t>Alejo - Andrea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -178,8 +278,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +341,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBC04"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -269,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,41 +444,90 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,16 +848,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509E58A-F92B-4CE3-A80A-B003A79C5C6F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -669,179 +874,168 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
+      <c r="A6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
+      <c r="B13" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -851,6 +1045,567 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33F2C04-F748-42A6-834B-702217340BC7}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.08203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" style="34"/>
+    <col min="6" max="6" width="7.08203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.08203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="18.08203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF16DF-E789-45D2-AC83-5616C747C082}">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -868,99 +1623,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+    </row>
+    <row r="5" spans="2:6" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
+    <row r="9" spans="2:6" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
